--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H2">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I2">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J2">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N2">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O2">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P2">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q2">
-        <v>0.002749271438</v>
+        <v>0.014533865268</v>
       </c>
       <c r="R2">
-        <v>0.010997085752</v>
+        <v>0.058135461072</v>
       </c>
       <c r="S2">
-        <v>0.0002809653485235874</v>
+        <v>0.002965465962363719</v>
       </c>
       <c r="T2">
-        <v>0.0001794720015707609</v>
+        <v>0.001844662461023136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H3">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I3">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J3">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P3">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q3">
-        <v>0.1463591062623333</v>
+        <v>0.061827479389</v>
       </c>
       <c r="R3">
-        <v>0.8781546375739999</v>
+        <v>0.370964876334</v>
       </c>
       <c r="S3">
-        <v>0.01495735805938171</v>
+        <v>0.01261517719381296</v>
       </c>
       <c r="T3">
-        <v>0.01433144871725575</v>
+        <v>0.01177087046551359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H4">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I4">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J4">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N4">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O4">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P4">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q4">
-        <v>0.011763902433</v>
+        <v>0.004388011303</v>
       </c>
       <c r="R4">
-        <v>0.07058341459799999</v>
+        <v>0.026328067818</v>
       </c>
       <c r="S4">
-        <v>0.001202227216054657</v>
+        <v>0.0008953226083748068</v>
       </c>
       <c r="T4">
-        <v>0.001151918515621112</v>
+        <v>0.0008354005882053136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H5">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I5">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J5">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N5">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O5">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P5">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q5">
-        <v>0.6368257644244999</v>
+        <v>0.154971166623</v>
       </c>
       <c r="R5">
-        <v>2.547303057698</v>
+        <v>0.6198846664919999</v>
       </c>
       <c r="S5">
-        <v>0.06508123220473716</v>
+        <v>0.03162006192393602</v>
       </c>
       <c r="T5">
-        <v>0.04157188446850436</v>
+        <v>0.01966919937257324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.021957</v>
+      </c>
+      <c r="H6">
+        <v>0.043914</v>
+      </c>
+      <c r="I6">
+        <v>0.0499528689286042</v>
+      </c>
+      <c r="J6">
+        <v>0.03585269972935351</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.051977</v>
-      </c>
-      <c r="H6">
-        <v>0.103954</v>
-      </c>
-      <c r="I6">
-        <v>0.08717138685919197</v>
-      </c>
-      <c r="J6">
-        <v>0.06264791299175514</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N6">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O6">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P6">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q6">
-        <v>0.02608916212333333</v>
+        <v>0.002916270188</v>
       </c>
       <c r="R6">
-        <v>0.15653497274</v>
+        <v>0.017497621128</v>
       </c>
       <c r="S6">
-        <v>0.002666215648027522</v>
+        <v>0.0005950309721537762</v>
       </c>
       <c r="T6">
-        <v>0.00255464452192373</v>
+        <v>0.0005552068265537967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H7">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I7">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J7">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N7">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O7">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P7">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q7">
-        <v>0.02919272611899999</v>
+        <v>0.006184181731</v>
       </c>
       <c r="R7">
-        <v>0.175156356714</v>
+        <v>0.037105090386</v>
       </c>
       <c r="S7">
-        <v>0.002983388382467336</v>
+        <v>0.001261810267962919</v>
       </c>
       <c r="T7">
-        <v>0.002858544766879414</v>
+        <v>0.001177360015484435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J8">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N8">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O8">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P8">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q8">
-        <v>0.01668079289066666</v>
+        <v>0.2087461177706667</v>
       </c>
       <c r="R8">
-        <v>0.100084757344</v>
+        <v>1.252476706624</v>
       </c>
       <c r="S8">
-        <v>0.001704715192322141</v>
+        <v>0.0425922145010819</v>
       </c>
       <c r="T8">
-        <v>0.001633379254497932</v>
+        <v>0.03974160901818229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J9">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P9">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q9">
-        <v>0.8880119676364443</v>
+        <v>0.8880119676364444</v>
       </c>
       <c r="R9">
-        <v>7.992107708727999</v>
+        <v>7.992107708728</v>
       </c>
       <c r="S9">
-        <v>0.09075153094435566</v>
+        <v>0.1811885011756329</v>
       </c>
       <c r="T9">
-        <v>0.1304308795622204</v>
+        <v>0.2535929156300228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J10">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N10">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O10">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P10">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q10">
-        <v>0.07137571698399998</v>
+        <v>0.06302386236177779</v>
       </c>
       <c r="R10">
-        <v>0.642381452856</v>
+        <v>0.567214761256</v>
       </c>
       <c r="S10">
-        <v>0.007294333662855481</v>
+        <v>0.01285928520763468</v>
       </c>
       <c r="T10">
-        <v>0.01048363973110171</v>
+        <v>0.01799796128100353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J11">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N11">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O11">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P11">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q11">
-        <v>3.863844994342666</v>
+        <v>2.225810464210666</v>
       </c>
       <c r="R11">
-        <v>23.183069966056</v>
+        <v>13.354862785264</v>
       </c>
       <c r="S11">
-        <v>0.3948706338965014</v>
+        <v>0.4541507058567924</v>
       </c>
       <c r="T11">
-        <v>0.3783467787005634</v>
+        <v>0.4237553740492571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J12">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N12">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O12">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P12">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q12">
-        <v>0.1582920856977778</v>
+        <v>0.04188562841955555</v>
       </c>
       <c r="R12">
-        <v>1.42462877128</v>
+        <v>0.376970655776</v>
       </c>
       <c r="S12">
-        <v>0.01617686431826296</v>
+        <v>0.008546274724583228</v>
       </c>
       <c r="T12">
-        <v>0.02324988481884081</v>
+        <v>0.01196143635561845</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J13">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N13">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O13">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P13">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q13">
-        <v>0.1771224956453333</v>
+        <v>0.08882178994577777</v>
       </c>
       <c r="R13">
-        <v>1.594102460808</v>
+        <v>0.799396109512</v>
       </c>
       <c r="S13">
-        <v>0.01810126240447221</v>
+        <v>0.01812305191657182</v>
       </c>
       <c r="T13">
-        <v>0.02601568868352744</v>
+        <v>0.02536517243543375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H14">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I14">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J14">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N14">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O14">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P14">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q14">
-        <v>0.0007511124313333333</v>
+        <v>0.002602685168</v>
       </c>
       <c r="R14">
-        <v>0.004506674588</v>
+        <v>0.015616111008</v>
       </c>
       <c r="S14">
-        <v>7.676090586511566E-05</v>
+        <v>0.0005310476004925145</v>
       </c>
       <c r="T14">
-        <v>7.354874982122849E-05</v>
+        <v>0.0004955057246032908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H15">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I15">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J15">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P15">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q15">
-        <v>0.03998591868122222</v>
+        <v>0.01107189729733333</v>
       </c>
       <c r="R15">
-        <v>0.359873268131</v>
+        <v>0.09964707567599999</v>
       </c>
       <c r="S15">
-        <v>0.004086412648464515</v>
+        <v>0.002259091712259077</v>
       </c>
       <c r="T15">
-        <v>0.005873117405812305</v>
+        <v>0.003161843330400289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H16">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I16">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J16">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N16">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O16">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P16">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q16">
-        <v>0.003213947243</v>
+        <v>0.0007857931613333333</v>
       </c>
       <c r="R16">
-        <v>0.028925525187</v>
+        <v>0.007072138451999999</v>
       </c>
       <c r="S16">
-        <v>0.0003284534930908186</v>
+        <v>0.0001603319440784142</v>
       </c>
       <c r="T16">
-        <v>0.0004720634192428864</v>
+        <v>0.0002244019068741148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H17">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I17">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J17">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N17">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O17">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P17">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q17">
-        <v>0.1739834567228333</v>
+        <v>0.027751816148</v>
       </c>
       <c r="R17">
-        <v>1.043900740337</v>
+        <v>0.166510896888</v>
       </c>
       <c r="S17">
-        <v>0.01778046426402709</v>
+        <v>0.005662434917562344</v>
       </c>
       <c r="T17">
-        <v>0.01703641851436938</v>
+        <v>0.005283460304205356</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H18">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I18">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J18">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N18">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O18">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P18">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q18">
-        <v>0.00712766797888889</v>
+        <v>0.0005222377546666666</v>
       </c>
       <c r="R18">
-        <v>0.06414901181</v>
+        <v>0.004700139791999999</v>
       </c>
       <c r="S18">
-        <v>0.0007284212428678099</v>
+        <v>0.0001065565324274103</v>
       </c>
       <c r="T18">
-        <v>0.001046909318337657</v>
+        <v>0.0001491373986889963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H19">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I19">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J19">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N19">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O19">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P19">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q19">
-        <v>0.007975574615666666</v>
+        <v>0.001107446489333333</v>
       </c>
       <c r="R19">
-        <v>0.07178017154099998</v>
+        <v>0.009967018403999999</v>
       </c>
       <c r="S19">
-        <v>0.0008150741576818658</v>
+        <v>0.0002259615600323449</v>
       </c>
       <c r="T19">
-        <v>0.001171449541276237</v>
+        <v>0.0003162576568441588</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H20">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I20">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J20">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N20">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O20">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P20">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q20">
-        <v>0.004097830415</v>
+        <v>0.047566520564</v>
       </c>
       <c r="R20">
-        <v>0.01639132166</v>
+        <v>0.190266082256</v>
       </c>
       <c r="S20">
-        <v>0.0004187830764279128</v>
+        <v>0.009705394613172075</v>
       </c>
       <c r="T20">
-        <v>0.0002675057167918651</v>
+        <v>0.006037222257666511</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H21">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I21">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J21">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P21">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q21">
-        <v>0.2181504484658333</v>
+        <v>0.2023493417303333</v>
       </c>
       <c r="R21">
-        <v>1.308902690795</v>
+        <v>1.214096050382</v>
       </c>
       <c r="S21">
-        <v>0.02229416707881274</v>
+        <v>0.0412870268399414</v>
       </c>
       <c r="T21">
-        <v>0.02136123979351629</v>
+        <v>0.03852377476532642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H22">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I22">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J22">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N22">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O22">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P22">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q22">
-        <v>0.0175342734525</v>
+        <v>0.01436110945233334</v>
       </c>
       <c r="R22">
-        <v>0.105205640715</v>
+        <v>0.08616665671400001</v>
       </c>
       <c r="S22">
-        <v>0.001791937741612529</v>
+        <v>0.002930217149903084</v>
       </c>
       <c r="T22">
-        <v>0.001716951867200043</v>
+        <v>0.002734104006422646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H23">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I23">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J23">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N23">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O23">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P23">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q23">
-        <v>0.94919837686625</v>
+        <v>0.507190554479</v>
       </c>
       <c r="R23">
-        <v>3.796793507465</v>
+        <v>2.028762217916</v>
       </c>
       <c r="S23">
-        <v>0.09700455512979779</v>
+        <v>0.1034863264524282</v>
       </c>
       <c r="T23">
-        <v>0.06196351885422793</v>
+        <v>0.0643734725195831</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H24">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I24">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J24">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N24">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O24">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P24">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q24">
-        <v>0.03888628840833334</v>
+        <v>0.009544386390666666</v>
       </c>
       <c r="R24">
-        <v>0.23331773045</v>
+        <v>0.05726631834400001</v>
       </c>
       <c r="S24">
-        <v>0.003974034511260984</v>
+        <v>0.00194742089948274</v>
       </c>
       <c r="T24">
-        <v>0.00380773607027601</v>
+        <v>0.001817084199252284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H25">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I25">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J25">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N25">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O25">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P25">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q25">
-        <v>0.04351219720749999</v>
+        <v>0.02023962669633333</v>
       </c>
       <c r="R25">
-        <v>0.261073183245</v>
+        <v>0.121437760178</v>
       </c>
       <c r="S25">
-        <v>0.004446785240793056</v>
+        <v>0.004129660138729487</v>
       </c>
       <c r="T25">
-        <v>0.004260703954673518</v>
+        <v>0.003853270850877941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H26">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I26">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J26">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N26">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O26">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P26">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q26">
-        <v>0.003377846102666666</v>
+        <v>0.008784614045333334</v>
       </c>
       <c r="R26">
-        <v>0.020267076616</v>
+        <v>0.052707684272</v>
       </c>
       <c r="S26">
-        <v>0.0003452033489225742</v>
+        <v>0.001792398199899032</v>
       </c>
       <c r="T26">
-        <v>0.0003307578833419543</v>
+        <v>0.001672436836161023</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H27">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I27">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J27">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P27">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q27">
-        <v>0.1798216537824444</v>
+        <v>0.03736999991488889</v>
       </c>
       <c r="R27">
-        <v>1.618394884042</v>
+        <v>0.336329999234</v>
       </c>
       <c r="S27">
-        <v>0.0183771063594312</v>
+        <v>0.007624913312299331</v>
       </c>
       <c r="T27">
-        <v>0.02641214006338661</v>
+        <v>0.01067189134931817</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.039814</v>
+      </c>
+      <c r="I28">
+        <v>0.03019270276029585</v>
+      </c>
+      <c r="J28">
+        <v>0.03250533741003964</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.06386066666666666</v>
-      </c>
-      <c r="H28">
-        <v>0.191582</v>
-      </c>
-      <c r="I28">
-        <v>0.1071016580234701</v>
-      </c>
-      <c r="J28">
-        <v>0.115456956603752</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N28">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O28">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P28">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q28">
-        <v>0.014453520826</v>
+        <v>0.002652218457555556</v>
       </c>
       <c r="R28">
-        <v>0.130081687434</v>
+        <v>0.023869966118</v>
       </c>
       <c r="S28">
-        <v>0.00147709624453241</v>
+        <v>0.0005411542914155632</v>
       </c>
       <c r="T28">
-        <v>0.002122927959094637</v>
+        <v>0.0007574039945986784</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H29">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I29">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J29">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N29">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O29">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P29">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q29">
-        <v>0.7824252624556666</v>
+        <v>0.09366826111533333</v>
       </c>
       <c r="R29">
-        <v>4.694551574734</v>
+        <v>0.562009566692</v>
       </c>
       <c r="S29">
-        <v>0.07996096111900747</v>
+        <v>0.01911191792199281</v>
       </c>
       <c r="T29">
-        <v>0.0766148947635012</v>
+        <v>0.01783279828345474</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H30">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I30">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J30">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N30">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O30">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P30">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q30">
-        <v>0.03205401015777778</v>
+        <v>0.001762663103111111</v>
       </c>
       <c r="R30">
-        <v>0.28848609142</v>
+        <v>0.015863967928</v>
       </c>
       <c r="S30">
-        <v>0.003275801003523409</v>
+        <v>0.0003596508801343603</v>
       </c>
       <c r="T30">
-        <v>0.004708081524512688</v>
+        <v>0.0005033703281963125</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H31">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I31">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J31">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N31">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O31">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P31">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q31">
-        <v>0.03586715185133332</v>
+        <v>0.003737866609555556</v>
       </c>
       <c r="R31">
-        <v>0.3228043666619999</v>
+        <v>0.033640799486</v>
       </c>
       <c r="S31">
-        <v>0.003665489948053031</v>
+        <v>0.0007626681545547458</v>
       </c>
       <c r="T31">
-        <v>0.005268154409914884</v>
+        <v>0.001067436618310727</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H32">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I32">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J32">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N32">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O32">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P32">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q32">
-        <v>0.003881837766</v>
+        <v>0.008717759721333332</v>
       </c>
       <c r="R32">
-        <v>0.023291026596</v>
+        <v>0.05230655832799999</v>
       </c>
       <c r="S32">
-        <v>0.0003967094284548465</v>
+        <v>0.001778757353599503</v>
       </c>
       <c r="T32">
-        <v>0.0003801086266024368</v>
+        <v>0.001659708942421212</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H33">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I33">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J33">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.447531</v>
       </c>
       <c r="O33">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P33">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q33">
-        <v>0.206651950853</v>
+        <v>0.03708559970455555</v>
       </c>
       <c r="R33">
-        <v>1.859867557677</v>
+        <v>0.3337703973409999</v>
       </c>
       <c r="S33">
-        <v>0.02111906325143745</v>
+        <v>0.007566884761196032</v>
       </c>
       <c r="T33">
-        <v>0.03035296448171352</v>
+        <v>0.01059067411219446</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H34">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I34">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J34">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N34">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O34">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P34">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q34">
-        <v>0.016610058981</v>
+        <v>0.002632034045222222</v>
       </c>
       <c r="R34">
-        <v>0.149490530829</v>
+        <v>0.023688306407</v>
       </c>
       <c r="S34">
-        <v>0.001697486448987729</v>
+        <v>0.0005370358971246373</v>
       </c>
       <c r="T34">
-        <v>0.002439679510444557</v>
+        <v>0.0007516398560955536</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H35">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I35">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J35">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N35">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O35">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P35">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q35">
-        <v>0.8991670551465</v>
+        <v>0.09295540927633332</v>
       </c>
       <c r="R35">
-        <v>5.395002330879</v>
+        <v>0.5577324556579999</v>
       </c>
       <c r="S35">
-        <v>0.09189153953235961</v>
+        <v>0.01896646880534128</v>
       </c>
       <c r="T35">
-        <v>0.0880462232119707</v>
+        <v>0.01769708376394183</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.01317033333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.039511</v>
+      </c>
+      <c r="I36">
+        <v>0.02996292456829379</v>
+      </c>
+      <c r="J36">
+        <v>0.032257959170344</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="L36">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G36">
-        <v>0.073389</v>
-      </c>
-      <c r="H36">
-        <v>0.220167</v>
-      </c>
-      <c r="I36">
-        <v>0.1230817652078658</v>
-      </c>
-      <c r="J36">
-        <v>0.1326837164481959</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N36">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O36">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P36">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q36">
-        <v>0.03683663003</v>
+        <v>0.001749248552444444</v>
       </c>
       <c r="R36">
-        <v>0.33152967027</v>
+        <v>0.015743236972</v>
       </c>
       <c r="S36">
-        <v>0.003764567023743036</v>
+        <v>0.0003569137972820793</v>
       </c>
       <c r="T36">
-        <v>0.005410551017357502</v>
+        <v>0.0004995394845372104</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H37">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I37">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J37">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N37">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O37">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P37">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q37">
-        <v>0.04121871168299999</v>
+        <v>0.003709419993222222</v>
       </c>
       <c r="R37">
-        <v>0.370968405147</v>
+        <v>0.033384779939</v>
       </c>
       <c r="S37">
-        <v>0.004212399522883109</v>
+        <v>0.0007568639537502526</v>
       </c>
       <c r="T37">
-        <v>0.006054189600107162</v>
+        <v>0.001059313011153743</v>
       </c>
     </row>
   </sheetData>
